--- a/productbacklog_余り者チーム.xlsx
+++ b/productbacklog_余り者チーム.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuki Hayashi\Desktop\20180618PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuki Hayashi\Desktop\airhockey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{69A3AA98-177F-48D0-9B66-87B3CF54B9E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FB8BB-32A4-4E29-9D00-BF62DC0A7BB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{DFB748B2-D9F6-534E-819C-188D0C5A2D22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13932" windowHeight="5292" activeTab="1" xr2:uid="{DFB748B2-D9F6-534E-819C-188D0C5A2D22}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="プロダクトバックログ" sheetId="1" r:id="rId1"/>
+    <sheet name="スプリントバックログ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>チーム名</t>
     <phoneticPr fontId="1"/>
@@ -527,6 +527,687 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク番号</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルの表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PushStartの表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限日</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMの再生</t>
+    <rPh sb="4" eb="6">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦部屋の作成</t>
+    <rPh sb="0" eb="4">
+      <t>タイセンヘヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦部屋画面の作成</t>
+    <rPh sb="0" eb="4">
+      <t>タイセンヘヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身の接続処理</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手との接続処理</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満員時(2人揃った状態で接続される)の
+エラー処理</t>
+    <rPh sb="0" eb="2">
+      <t>マンイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２人揃ったらゲーム画面に移行</t>
+    <rPh sb="0" eb="2">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PushStartクリック後対戦部屋に移行</t>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面の作成</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分側のスマッシャ―の画像</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手側のスマッシャーの画像</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマッシャ―の画像</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックの画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点の画像</t>
+    <rPh sb="0" eb="2">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台の画像</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景の画像</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマッシャ―が動く</t>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックが動く</t>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックの移動処理</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分側のスマッシャ―の移動処理</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマッシャ―の当たり判定処理</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックの当たり判定処理</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマッシャ―とパックが当たる</t>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマッシャーとパックがあたった時の処理</t>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールが機能する</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール範囲の作成</t>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールの当たり判定処理</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックとゴールが当たった時の処理</t>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点の加算処理</t>
+    <rPh sb="0" eb="2">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝敗の確定処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトへの遷移処理</t>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムが機能する</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムな時間でのアイテム生成処理</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの当たり判定処理</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの移動処理</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面の表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマッシャ―の拡大効果適応処理</t>
+    <rPh sb="7" eb="9">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テキオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックの増加効果適応処理</t>
+    <rPh sb="4" eb="6">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テキオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックの速度増加効果適応処理</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキオウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルへの遷移処理</t>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝敗の表示処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンドの実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルBGMの実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦部屋BGMの実装</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面BGMの実装</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトBGMの実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パック反射時のSEの実装</t>
+    <rPh sb="3" eb="5">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール時SEの実装</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝敗確定時SEの実装</t>
+    <rPh sb="0" eb="2">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマッシャーの同期処理</t>
+    <rPh sb="7" eb="9">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックの同期処理</t>
+    <rPh sb="4" eb="6">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点の同期処理</t>
+    <rPh sb="0" eb="2">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの同期処理</t>
+    <rPh sb="5" eb="7">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -595,7 +1276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -642,13 +1323,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,23 +1552,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,9 +1961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CEF9F9-50BE-4146-9CD8-0E27472C5CDC}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -1179,10 +2127,10 @@
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1202,8 +2150,8 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="59.4" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
@@ -1221,8 +2169,8 @@
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="59.4" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
@@ -1240,35 +2188,35 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:9" ht="99" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
@@ -2086,4 +3034,936 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E9E332-1E8B-444D-87BA-BF579BF9BF35}">
+  <dimension ref="A1:J80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="13">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="35">
+        <v>2</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="39.6" x14ac:dyDescent="0.5">
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="13">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="32"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="35">
+        <v>3</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="13">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="13">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="32"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="35">
+        <v>4</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="13">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="13">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="32"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="35">
+        <v>5</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="13">
+        <v>2</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="13">
+        <v>3</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="32"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.5">
+      <c r="A41" s="35">
+        <v>6</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="31"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="31"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="31"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45" s="32"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A46" s="35">
+        <v>7</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="13">
+        <v>2</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A48" s="31"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="13">
+        <v>3</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A49" s="31"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="13">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A50" s="31"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="13">
+        <v>5</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A51" s="31"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="13">
+        <v>6</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A52" s="31"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="13">
+        <v>7</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A53" s="31"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A54" s="31"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A55" s="32"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A56" s="35">
+        <v>8</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A57" s="31"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="13">
+        <v>2</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A58" s="31"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="13">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A59" s="31"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="13">
+        <v>4</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A60" s="31"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="13">
+        <v>5</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A61" s="31"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="13">
+        <v>6</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A62" s="31"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="13">
+        <v>7</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A63" s="31"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A64" s="31"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A65" s="32"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A66" s="35">
+        <v>9</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="13">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A67" s="31"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="13">
+        <v>2</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A68" s="31"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A69" s="31"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A70" s="32"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A71" s="35">
+        <v>10</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A72" s="31"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="13">
+        <v>2</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A73" s="31"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="13">
+        <v>3</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A74" s="31"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="13">
+        <v>4</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A75" s="31"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="13">
+        <v>5</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A76" s="31"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="13">
+        <v>6</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A77" s="31"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="13">
+        <v>7</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A78" s="31"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="15"/>
+      <c r="J78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A79" s="31"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="40"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="B56:B65"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="A19:A30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/productbacklog_余り者チーム.xlsx
+++ b/productbacklog_余り者チーム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuki Hayashi\Desktop\airhockey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FB8BB-32A4-4E29-9D00-BF62DC0A7BB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60857A-DB89-4E1C-ACA6-43209E89FC48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13932" windowHeight="5292" activeTab="1" xr2:uid="{DFB748B2-D9F6-534E-819C-188D0C5A2D22}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>チーム名</t>
     <phoneticPr fontId="1"/>
@@ -1208,6 +1208,27 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮川</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤガワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1521,7 +1542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,9 +1606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,44 +1624,53 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,7 +1989,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2127,10 +2154,10 @@
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2150,8 +2177,8 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="59.4" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
@@ -2169,8 +2196,8 @@
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="59.4" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
@@ -2188,8 +2215,8 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="99" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
@@ -2207,8 +2234,8 @@
       <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
@@ -3038,11 +3065,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E9E332-1E8B-444D-87BA-BF579BF9BF35}">
-  <dimension ref="A1:J80"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -3052,31 +3082,31 @@
     <col min="4" max="4" width="34" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="30">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="19">
@@ -3085,48 +3115,76 @@
       <c r="D2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="31"/>
-      <c r="B3" s="29"/>
+      <c r="E2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="41">
+        <v>43290</v>
+      </c>
+      <c r="J2" s="40">
+        <v>43283</v>
+      </c>
+      <c r="K2" s="40">
+        <v>43290</v>
+      </c>
+      <c r="L2" s="40">
+        <v>43297</v>
+      </c>
+      <c r="M2" s="40">
+        <v>43304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A3" s="28"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="31"/>
-      <c r="B4" s="29"/>
+      <c r="E3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="42">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A4" s="28"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="29"/>
+      <c r="E4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="41">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A5" s="28"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="13">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="29"/>
+      <c r="E5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="42">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A6" s="28"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="13">
         <v>5</v>
       </c>
@@ -3136,35 +3194,35 @@
       <c r="E6" s="13"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A7" s="28"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A8" s="28"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
       <c r="E8" s="13"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="29"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A9" s="29"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
       <c r="E9" s="13"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="13">
@@ -3173,60 +3231,80 @@
       <c r="D10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
+      <c r="E10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="42">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A11" s="28"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
+      <c r="E11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="42">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="39.6" x14ac:dyDescent="0.5">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
+      <c r="E12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="42">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="39.6" x14ac:dyDescent="0.5">
+      <c r="A13" s="28"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
+      <c r="E13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="42">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A14" s="28"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
+      <c r="E14" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="42">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13">
         <v>6</v>
       </c>
@@ -3236,35 +3314,35 @@
       <c r="E15" s="13"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
       <c r="E17" s="13"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="32"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="35">
+      <c r="A19" s="27">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="13">
@@ -3273,126 +3351,154 @@
       <c r="D19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="31"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="13">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="13">
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="13">
         <v>4</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="13">
         <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="13">
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="13">
         <v>7</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
       <c r="E26" s="13"/>
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
       <c r="E27" s="13"/>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
       <c r="E28" s="13"/>
       <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
       <c r="E29" s="13"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
       <c r="E30" s="13"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A31" s="35">
+      <c r="A31" s="27">
         <v>4</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="13">
@@ -3401,54 +3507,66 @@
       <c r="D31" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="42">
+        <v>43290</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="13">
         <v>2</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="42">
+        <v>43290</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="13">
         <v>3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="42">
+        <v>43290</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="31"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="13"/>
       <c r="D34" s="8"/>
       <c r="E34" s="13"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="32"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="13"/>
       <c r="D35" s="8"/>
       <c r="E35" s="13"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="35">
+      <c r="A36" s="27">
         <v>5</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="30" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="13">
@@ -3457,54 +3575,66 @@
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="42">
+        <v>43290</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="31"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="13">
         <v>2</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="42">
+        <v>43290</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="31"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="13">
         <v>3</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="42">
+        <v>43290</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="31"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="13"/>
       <c r="D39" s="8"/>
       <c r="E39" s="13"/>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="32"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="13"/>
       <c r="D40" s="8"/>
       <c r="E40" s="13"/>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.5">
-      <c r="A41" s="35">
+      <c r="A41" s="27">
         <v>6</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="13">
@@ -3513,46 +3643,50 @@
       <c r="D41" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="15"/>
+      <c r="E41" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="42">
+        <v>43290</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="31"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="13"/>
       <c r="D42" s="8"/>
       <c r="E42" s="13"/>
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" s="31"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="13"/>
       <c r="D43" s="8"/>
       <c r="E43" s="13"/>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A44" s="31"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="13"/>
       <c r="D44" s="8"/>
       <c r="E44" s="13"/>
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A45" s="32"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="13"/>
       <c r="D45" s="8"/>
       <c r="E45" s="13"/>
       <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A46" s="35">
+      <c r="A46" s="27">
         <v>7</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C46" s="13">
@@ -3561,110 +3695,138 @@
       <c r="D46" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="15"/>
+      <c r="E46" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="42">
+        <v>43297</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A47" s="31"/>
-      <c r="B47" s="34"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="13">
         <v>2</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="15"/>
+      <c r="E47" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="42">
+        <v>43297</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A48" s="31"/>
-      <c r="B48" s="34"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="13">
         <v>3</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="15"/>
+      <c r="E48" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="42">
+        <v>43297</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A49" s="31"/>
-      <c r="B49" s="34"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="13">
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="15"/>
+      <c r="E49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="42">
+        <v>43297</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A50" s="31"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="13">
         <v>5</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="15"/>
+      <c r="E50" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="42">
+        <v>43297</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A51" s="31"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="13">
         <v>6</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="15"/>
+      <c r="E51" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="42">
+        <v>43297</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A52" s="31"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="13">
         <v>7</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="15"/>
+      <c r="E52" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="42">
+        <v>43297</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A53" s="31"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="13"/>
       <c r="D53" s="8"/>
       <c r="E53" s="13"/>
       <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A54" s="31"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="13"/>
       <c r="D54" s="8"/>
       <c r="E54" s="13"/>
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A55" s="32"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="13"/>
       <c r="D55" s="8"/>
       <c r="E55" s="13"/>
       <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A56" s="35">
+      <c r="A56" s="27">
         <v>8</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="13">
@@ -3677,8 +3839,8 @@
       <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="34"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="13">
         <v>2</v>
       </c>
@@ -3689,8 +3851,8 @@
       <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A58" s="31"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="13">
         <v>3</v>
       </c>
@@ -3701,8 +3863,8 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A59" s="31"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="13">
         <v>4</v>
       </c>
@@ -3713,8 +3875,8 @@
       <c r="F59" s="15"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A60" s="31"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="13">
         <v>5</v>
       </c>
@@ -3725,8 +3887,8 @@
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A61" s="31"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="13">
         <v>6</v>
       </c>
@@ -3737,8 +3899,8 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A62" s="31"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="13">
         <v>7</v>
       </c>
@@ -3749,34 +3911,34 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A63" s="31"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="13"/>
       <c r="D63" s="8"/>
       <c r="E63" s="13"/>
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A64" s="31"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="13"/>
       <c r="D64" s="8"/>
       <c r="E64" s="13"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A65" s="32"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="13"/>
       <c r="D65" s="8"/>
       <c r="E65" s="13"/>
       <c r="F65" s="15"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A66" s="35">
+      <c r="A66" s="27">
         <v>9</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="30" t="s">
         <v>92</v>
       </c>
       <c r="C66" s="13">
@@ -3789,8 +3951,8 @@
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A67" s="31"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="13">
         <v>2</v>
       </c>
@@ -3801,34 +3963,34 @@
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A68" s="31"/>
-      <c r="B68" s="34"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="13"/>
       <c r="D68" s="8"/>
       <c r="E68" s="13"/>
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A69" s="31"/>
-      <c r="B69" s="34"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="13"/>
       <c r="D69" s="8"/>
       <c r="E69" s="13"/>
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A70" s="32"/>
-      <c r="B70" s="28"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="13"/>
       <c r="D70" s="8"/>
       <c r="E70" s="13"/>
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A71" s="35">
+      <c r="A71" s="27">
         <v>10</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="30" t="s">
         <v>98</v>
       </c>
       <c r="C71" s="13">
@@ -3837,84 +3999,112 @@
       <c r="D71" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="15"/>
+      <c r="E71" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A72" s="31"/>
-      <c r="B72" s="34"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="13">
         <v>2</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="15"/>
+      <c r="E72" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A73" s="31"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="13">
         <v>3</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="15"/>
+      <c r="E73" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F73" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A74" s="31"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="13">
         <v>4</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="15"/>
+      <c r="E74" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A75" s="31"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="13">
         <v>5</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="15"/>
+      <c r="E75" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A76" s="31"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="13">
         <v>6</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="15"/>
+      <c r="E76" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A77" s="31"/>
-      <c r="B77" s="34"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="13">
         <v>7</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="15"/>
+      <c r="E77" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" s="42">
+        <v>43304</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A78" s="31"/>
-      <c r="B78" s="34"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="13"/>
       <c r="D78" s="8"/>
       <c r="E78" s="13"/>
@@ -3924,16 +4114,16 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A79" s="31"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="13"/>
       <c r="D79" s="8"/>
       <c r="E79" s="13"/>
       <c r="F79" s="15"/>
     </row>
     <row r="80" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="40"/>
-      <c r="B80" s="39"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17"/>
       <c r="E80" s="16"/>
@@ -3941,6 +4131,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A41:A45"/>
     <mergeCell ref="A66:A70"/>
     <mergeCell ref="B66:B70"/>
     <mergeCell ref="B71:B80"/>
@@ -3949,18 +4151,6 @@
     <mergeCell ref="A46:A55"/>
     <mergeCell ref="A56:A65"/>
     <mergeCell ref="B56:B65"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="A19:A30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/productbacklog_余り者チーム.xlsx
+++ b/productbacklog_余り者チーム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuki Hayashi\Desktop\airhockey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60857A-DB89-4E1C-ACA6-43209E89FC48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B6019-F1EA-4032-9D01-42E3DC8D6CDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13932" windowHeight="5292" activeTab="1" xr2:uid="{DFB748B2-D9F6-534E-819C-188D0C5A2D22}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="プロダクトバックログ" sheetId="1" r:id="rId1"/>
     <sheet name="スプリントバックログ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1618,59 +1618,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2154,10 +2154,10 @@
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2177,8 +2177,8 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="59.4" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
@@ -2196,8 +2196,8 @@
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:9" ht="59.4" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
@@ -2215,8 +2215,8 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="99" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
@@ -2234,8 +2234,8 @@
       <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
@@ -3071,8 +3071,8 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -3103,10 +3103,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A2" s="39">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="19">
@@ -3118,25 +3118,25 @@
       <c r="E2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="26">
         <v>43290</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="25">
         <v>43283</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="25">
         <v>43290</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="25">
         <v>43297</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="25">
         <v>43304</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="13">
         <v>2</v>
       </c>
@@ -3146,13 +3146,13 @@
       <c r="E3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="28"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="13">
         <v>3</v>
       </c>
@@ -3162,13 +3162,13 @@
       <c r="E4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="26">
         <v>43290</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A5" s="28"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="13">
         <v>4</v>
       </c>
@@ -3178,13 +3178,13 @@
       <c r="E5" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="28"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13">
         <v>5</v>
       </c>
@@ -3195,34 +3195,34 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="28"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
       <c r="E8" s="13"/>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="29"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
       <c r="E9" s="13"/>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="27">
+      <c r="A10" s="37">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="13">
@@ -3234,13 +3234,13 @@
       <c r="E10" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A11" s="28"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="13">
         <v>2</v>
       </c>
@@ -3250,13 +3250,13 @@
       <c r="E11" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A12" s="28"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="13">
         <v>3</v>
       </c>
@@ -3266,13 +3266,13 @@
       <c r="E12" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.6" x14ac:dyDescent="0.5">
-      <c r="A13" s="28"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="13">
         <v>4</v>
       </c>
@@ -3282,13 +3282,13 @@
       <c r="E13" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="13">
         <v>5</v>
       </c>
@@ -3298,13 +3298,13 @@
       <c r="E14" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="13">
         <v>6</v>
       </c>
@@ -3315,34 +3315,34 @@
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="28"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
       <c r="E17" s="13"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="27">
+      <c r="A19" s="37">
         <v>3</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="13">
@@ -3354,13 +3354,13 @@
       <c r="E19" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="28"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="13">
         <v>2</v>
       </c>
@@ -3370,13 +3370,13 @@
       <c r="E20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="13">
         <v>3</v>
       </c>
@@ -3386,13 +3386,13 @@
       <c r="E21" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="13">
         <v>4</v>
       </c>
@@ -3402,13 +3402,13 @@
       <c r="E22" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="13">
         <v>5</v>
       </c>
@@ -3418,13 +3418,13 @@
       <c r="E23" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="28"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="13">
         <v>6</v>
       </c>
@@ -3434,13 +3434,13 @@
       <c r="E24" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="28"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="13">
         <v>7</v>
       </c>
@@ -3450,55 +3450,55 @@
       <c r="E25" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" s="28"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
       <c r="E26" s="13"/>
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
       <c r="E27" s="13"/>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="28"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
       <c r="E28" s="13"/>
       <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="28"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
       <c r="E29" s="13"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
       <c r="E30" s="13"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A31" s="27">
+      <c r="A31" s="37">
         <v>4</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="13">
@@ -3510,13 +3510,13 @@
       <c r="E31" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="13">
         <v>2</v>
       </c>
@@ -3526,13 +3526,13 @@
       <c r="E32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="13">
         <v>3</v>
       </c>
@@ -3542,31 +3542,31 @@
       <c r="E33" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="28"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="13"/>
       <c r="D34" s="8"/>
       <c r="E34" s="13"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="13"/>
       <c r="D35" s="8"/>
       <c r="E35" s="13"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="27">
+      <c r="A36" s="37">
         <v>5</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="13">
@@ -3578,13 +3578,13 @@
       <c r="E36" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="28"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="13">
         <v>2</v>
       </c>
@@ -3594,13 +3594,13 @@
       <c r="E37" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="28"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="13">
         <v>3</v>
       </c>
@@ -3610,31 +3610,31 @@
       <c r="E38" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="28"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="13"/>
       <c r="D39" s="8"/>
       <c r="E39" s="13"/>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="29"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="13"/>
       <c r="D40" s="8"/>
       <c r="E40" s="13"/>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.5">
-      <c r="A41" s="27">
+      <c r="A41" s="37">
         <v>6</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="38" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="13">
@@ -3646,47 +3646,47 @@
       <c r="E41" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="27">
         <v>43290</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="28"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="13"/>
       <c r="D42" s="8"/>
       <c r="E42" s="13"/>
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" s="28"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="13"/>
       <c r="D43" s="8"/>
       <c r="E43" s="13"/>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A44" s="28"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="13"/>
       <c r="D44" s="8"/>
       <c r="E44" s="13"/>
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A45" s="29"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="13"/>
       <c r="D45" s="8"/>
       <c r="E45" s="13"/>
       <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A46" s="27">
+      <c r="A46" s="37">
         <v>7</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="35" t="s">
         <v>81</v>
       </c>
       <c r="C46" s="13">
@@ -3698,13 +3698,13 @@
       <c r="E46" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A47" s="28"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="13">
         <v>2</v>
       </c>
@@ -3714,13 +3714,13 @@
       <c r="E47" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A48" s="28"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="13">
         <v>3</v>
       </c>
@@ -3730,13 +3730,13 @@
       <c r="E48" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A49" s="28"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="13">
         <v>4</v>
       </c>
@@ -3746,13 +3746,13 @@
       <c r="E49" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A50" s="28"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="13">
         <v>5</v>
       </c>
@@ -3762,13 +3762,13 @@
       <c r="E50" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A51" s="28"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="13">
         <v>6</v>
       </c>
@@ -3778,13 +3778,13 @@
       <c r="E51" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A52" s="28"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="13">
         <v>7</v>
       </c>
@@ -3794,39 +3794,39 @@
       <c r="E52" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="27">
         <v>43297</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A53" s="28"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="13"/>
       <c r="D53" s="8"/>
       <c r="E53" s="13"/>
       <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A54" s="28"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="13"/>
       <c r="D54" s="8"/>
       <c r="E54" s="13"/>
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A55" s="29"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="13"/>
       <c r="D55" s="8"/>
       <c r="E55" s="13"/>
       <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A56" s="27">
+      <c r="A56" s="37">
         <v>8</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="35" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="13">
@@ -3839,8 +3839,8 @@
       <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="13">
         <v>2</v>
       </c>
@@ -3851,8 +3851,8 @@
       <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A58" s="28"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="13">
         <v>3</v>
       </c>
@@ -3863,8 +3863,8 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A59" s="28"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="13">
         <v>4</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="F59" s="15"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A60" s="28"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="13">
         <v>5</v>
       </c>
@@ -3887,8 +3887,8 @@
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A61" s="28"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="13">
         <v>6</v>
       </c>
@@ -3899,8 +3899,8 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A62" s="28"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="13">
         <v>7</v>
       </c>
@@ -3911,34 +3911,34 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A63" s="28"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="13"/>
       <c r="D63" s="8"/>
       <c r="E63" s="13"/>
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A64" s="28"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="13"/>
       <c r="D64" s="8"/>
       <c r="E64" s="13"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A65" s="29"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="13"/>
       <c r="D65" s="8"/>
       <c r="E65" s="13"/>
       <c r="F65" s="15"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A66" s="27">
+      <c r="A66" s="37">
         <v>9</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="35" t="s">
         <v>92</v>
       </c>
       <c r="C66" s="13">
@@ -3951,8 +3951,8 @@
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A67" s="28"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="13">
         <v>2</v>
       </c>
@@ -3963,34 +3963,34 @@
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A68" s="28"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="13"/>
       <c r="D68" s="8"/>
       <c r="E68" s="13"/>
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A69" s="28"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="13"/>
       <c r="D69" s="8"/>
       <c r="E69" s="13"/>
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A70" s="29"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="13"/>
       <c r="D70" s="8"/>
       <c r="E70" s="13"/>
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A71" s="27">
+      <c r="A71" s="37">
         <v>10</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="35" t="s">
         <v>98</v>
       </c>
       <c r="C71" s="13">
@@ -4002,13 +4002,13 @@
       <c r="E71" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F71" s="42">
+      <c r="F71" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A72" s="28"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="13">
         <v>2</v>
       </c>
@@ -4018,13 +4018,13 @@
       <c r="E72" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A73" s="28"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="13">
         <v>3</v>
       </c>
@@ -4034,13 +4034,13 @@
       <c r="E73" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A74" s="28"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="13">
         <v>4</v>
       </c>
@@ -4050,13 +4050,13 @@
       <c r="E74" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A75" s="28"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="13">
         <v>5</v>
       </c>
@@ -4066,13 +4066,13 @@
       <c r="E75" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A76" s="28"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="13">
         <v>6</v>
       </c>
@@ -4082,13 +4082,13 @@
       <c r="E76" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F76" s="42">
+      <c r="F76" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A77" s="28"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="13">
         <v>7</v>
       </c>
@@ -4098,13 +4098,13 @@
       <c r="E77" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F77" s="27">
         <v>43304</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A78" s="28"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="13"/>
       <c r="D78" s="8"/>
       <c r="E78" s="13"/>
@@ -4114,16 +4114,16 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A79" s="28"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="13"/>
       <c r="D79" s="8"/>
       <c r="E79" s="13"/>
       <c r="F79" s="15"/>
     </row>
     <row r="80" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="34"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17"/>
       <c r="E80" s="16"/>
@@ -4131,18 +4131,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="A19:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A41:A45"/>
     <mergeCell ref="A66:A70"/>
     <mergeCell ref="B66:B70"/>
     <mergeCell ref="B71:B80"/>
@@ -4151,6 +4139,18 @@
     <mergeCell ref="A46:A55"/>
     <mergeCell ref="A56:A65"/>
     <mergeCell ref="B56:B65"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="A19:A30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
